--- a/trunk/Report/test.xlsx
+++ b/trunk/Report/test.xlsx
@@ -298,12 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,17 +308,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N9:N208"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="Q198" sqref="Q198"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A202" workbookViewId="0">
       <selection activeCell="D122" sqref="D122:H127"/>
     </sheetView>
   </sheetViews>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="123" spans="4:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -1515,7 +1515,7 @@
       </c>
     </row>
     <row r="124" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D124" s="4"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="2" t="s">
         <v>18</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="125" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -1547,7 +1547,7 @@
       </c>
     </row>
     <row r="126" spans="4:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="127" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D127" s="4"/>
+      <c r="D127" s="10"/>
       <c r="E127" s="2" t="s">
         <v>21</v>
       </c>
@@ -1598,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:E71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1644,7 +1644,7 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1676,7 +1676,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D8" s="4"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1743,7 +1743,7 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D16" s="4"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1807,601 +1807,607 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>143.69</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>34592.54</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>8.57</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>164.99</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>48948.66</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>9.23</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>132.75</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>31667.15</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>8.17</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>117</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>25154.94</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>7.23</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D24" s="10"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>109.96</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>21805.63</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>6.77</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>1.21</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>2.35</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>6.16</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>1.26</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>2.48</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>6.5</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>1.21</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>2.54</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <v>6.02</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>1.19</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>2.5</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>5.92</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D32" s="10"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>1.19</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>2.5</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="6">
         <v>5.92</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <v>0.23</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="6">
         <v>0.09</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="6">
         <v>1.34</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="6">
         <v>0.22</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="6">
         <v>0.09</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="6">
         <v>1.32</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="6">
         <v>0.24</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="6">
         <v>0.1</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="6">
         <v>1.42</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="6">
         <v>0.22</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="6">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="6">
         <v>1.32</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="6">
         <v>0.13</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="6">
         <v>1.7</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="6">
         <v>9.98</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="6">
         <v>174.11</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="6">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="12"/>
+      <c r="E45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="6">
         <v>15.53</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="6">
         <v>356</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="6">
         <v>3.08</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="6">
         <v>5.18</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>51.99</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="6">
         <v>1.19</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="6">
         <v>5.14</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="6">
         <v>51.74</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="6">
         <v>1.18</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D48" s="10"/>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="12"/>
+      <c r="E48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="6">
         <v>5.18</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="6">
         <v>54.85</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="6">
         <v>1.19</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="6">
         <v>10.36</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="6">
         <v>191.81</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="6">
         <v>33.25</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="6">
         <v>12.72</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="6">
         <v>243.03</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="6">
         <v>40.770000000000003</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="6">
         <v>20.48</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="6">
         <v>833.99</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="6">
         <v>46.87</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="6">
         <v>15.19</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="6">
         <v>451.24</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="6">
         <v>40.01</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D56" s="10"/>
-      <c r="E56" s="7" t="s">
+      <c r="D56" s="12"/>
+      <c r="E56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="6">
         <v>15.08</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="6">
         <v>457.49</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="6">
         <v>39.9</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="8"/>
-      <c r="E59" s="8" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="6">
         <v>787.53</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="6">
         <v>1238980</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="6">
         <v>30.33</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="12"/>
+      <c r="E61" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="6">
         <v>812.89</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="6">
         <v>1134819</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="6">
         <v>32.58</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="6">
         <v>1090</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="6">
         <v>2497855</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="6">
         <v>37.369999999999997</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="6">
         <v>698.36</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="6">
         <v>955424</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="6">
         <v>28.71</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D64" s="10"/>
-      <c r="E64" s="7" t="s">
+      <c r="D64" s="12"/>
+      <c r="E64" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="6">
         <v>467.98</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="6">
         <v>421860</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="6">
         <v>22.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="D60:D61"/>
@@ -2412,12 +2418,6 @@
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
